--- a/Data/qly/华科同济医院/同济医院交互强度表.xlsx
+++ b/Data/qly/华科同济医院/同济医院交互强度表.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>进修</t>
+          <t>技术</t>
         </is>
       </c>
     </row>
@@ -492,10 +492,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
